--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.45099999999999</v>
+        <v>14.94679999999999</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.994400000000002</v>
+        <v>5.9556</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.199000000000002</v>
+        <v>5.150300000000002</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.938099999999999</v>
+        <v>4.991000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.76369999999999</v>
+        <v>16.9464</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.03740000000001</v>
+        <v>15.8994</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.707199999999998</v>
+        <v>6.637199999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.64410000000002</v>
+        <v>17.67450000000001</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.8401</v>
+        <v>16.00110000000001</v>
       </c>
     </row>
     <row r="21">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.938400000000001</v>
+        <v>5.8969</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.10040000000001</v>
+        <v>17.07710000000002</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.53019999999999</v>
+        <v>15.3012</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.0475</v>
+        <v>15.6756</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.69549999999999</v>
+        <v>15.68910000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.982999999999999</v>
+        <v>9.024700000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.06500000000001</v>
+        <v>17.15350000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.56699999999999</v>
+        <v>16.69959999999998</v>
       </c>
     </row>
     <row r="45">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4024</v>
+        <v>16.49300000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.63169999999999</v>
+        <v>16.66139999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.004099999999998</v>
+        <v>5.984599999999995</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,7 +1587,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.838799999999995</v>
+        <v>4.836899999999996</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.27850000000001</v>
+        <v>17.23900000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.17309999999997</v>
+        <v>16.18139999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.293100000000003</v>
+        <v>9.397400000000003</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.542200000000003</v>
+        <v>9.515000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.856200000000001</v>
+        <v>8.708500000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.416199999999998</v>
+        <v>9.423999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.908900000000001</v>
+        <v>5.575300000000002</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.044800000000002</v>
+        <v>5.884200000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.763400000000003</v>
+        <v>5.692199999999998</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.38710000000001</v>
+        <v>16.38320000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.4098</v>
+        <v>16.39470000000001</v>
       </c>
     </row>
     <row r="89">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.45980000000002</v>
+        <v>18.45600000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.17459999999999</v>
+        <v>16.34049999999998</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.4753</v>
+        <v>15.1522</v>
       </c>
     </row>
     <row r="99">
@@ -2148,7 +2148,7 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.209800000000005</v>
+        <v>9.318799999999998</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.74410000000001</v>
+        <v>16.67960000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.408100000000005</v>
+        <v>8.218700000000007</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.68409999999999</v>
+        <v>16.80709999999999</v>
       </c>
     </row>
   </sheetData>
